--- a/LNBP.xlsx
+++ b/LNBP.xlsx
@@ -461,434 +461,370 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fuerza Regia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Astros</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diablos Rojos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mineros</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Panteras</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>El Calor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lobos Plateados</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Plateros</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dorados</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Soles</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Halcones Xalapa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Correcaminos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Freseros</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Halcones Rojos</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Abejas</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Plateros</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fuerza Regia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Diablos Rojos</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Dorados</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>El Calor</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mineros</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Lobos Plateados</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Astros</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Abejas</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Soles</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Freseros</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Correcaminos</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Halcones Rojos</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Halcones Xalapa</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
     </row>
